--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2518.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2518.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.527160196435272</v>
+        <v>2.163221836090088</v>
       </c>
       <c r="B1">
-        <v>3.3734192541152</v>
+        <v>2.681084871292114</v>
       </c>
       <c r="C1">
-        <v>3.904528668472851</v>
+        <v>2.696366310119629</v>
       </c>
       <c r="D1">
-        <v>2.044112310691637</v>
+        <v>3.266540765762329</v>
       </c>
       <c r="E1">
-        <v>2.086663312171683</v>
+        <v>2.530049800872803</v>
       </c>
     </row>
   </sheetData>
